--- a/6.股票估值/6.NCC.xlsx
+++ b/6.股票估值/6.NCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/PycharmProjects/LXOD_FinTech_Intro/6.股票估值/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D212B9B-A940-D641-A8AD-74AB81A59D5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6D5F3D-309B-AA4C-A8B6-EAFB030841C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5520" yWindow="2640" windowWidth="32460" windowHeight="20540" xr2:uid="{D9CF8529-D3F2-6349-8BBE-81512817B0B4}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
